--- a/scan_54564.xlsx
+++ b/scan_54564.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB26"/>
+  <dimension ref="A1:AB25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -603,7 +603,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>MAGNITUDONERO64039198</t>
+          <t>MAGNITUDO NERO</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -690,7 +690,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>ASCOTNERO-SENZAETICHETTA64039998</t>
+          <t>ASCOT NERO-SENZA ETICHETTA</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -711,6 +711,11 @@
       <c r="L3" t="inlineStr">
         <is>
           <t>34/44</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>PA</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -740,7 +745,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>ASCOTNERO64039118</t>
+          <t>ASCOT NERO</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -761,6 +766,11 @@
       <c r="L4" t="inlineStr">
         <is>
           <t>34/44</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>PA</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -790,7 +800,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>NAPPA/RANCHNERO64039118</t>
+          <t>NAPPA/RANCH NERO</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -811,6 +821,11 @@
       <c r="L5" t="inlineStr">
         <is>
           <t>34/44</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>PA</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -840,7 +855,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>TEBEMORO+M.NERO64039118</t>
+          <t>TEBE MORO+M.NERO</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -861,6 +876,11 @@
       <c r="L6" t="inlineStr">
         <is>
           <t>34/44</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>PA</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -890,7 +910,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>GOTEBORGNERO64039118</t>
+          <t>GOTEBORG NERO</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -911,6 +931,11 @@
       <c r="L7" t="inlineStr">
         <is>
           <t>34/44</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>PA</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -940,7 +965,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>GAUCHONERO64039118</t>
+          <t>GAUCHO NERO</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -961,6 +986,11 @@
       <c r="L8" t="inlineStr">
         <is>
           <t>34/44</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>PA</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -990,7 +1020,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>GAUCHO/NYAPNERO64039118</t>
+          <t>GAUCHO/NYAP NERO</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1011,6 +1041,11 @@
       <c r="L9" t="inlineStr">
         <is>
           <t>34/44</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>PA</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1040,7 +1075,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>TEBECUOIO/NYAPNERO64039118</t>
+          <t>TEBE CUOIO/NYAP NERO</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1061,6 +1096,11 @@
       <c r="L10" t="inlineStr">
         <is>
           <t>34/44</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>PA</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1088,9 +1128,34 @@
           <t>M6577</t>
         </is>
       </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>BUTTERFLY NERO</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>SOLE: 60% TPU 40% CALF LEATHER UPPER: 100% CALF LEATHER LINING: 90% LAMB LEATHER 10% GOAT LEATHER</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>64039118</t>
+        </is>
+      </c>
       <c r="L11" t="inlineStr">
         <is>
           <t>34/44</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>PA</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1113,14 +1178,19 @@
       </c>
     </row>
     <row r="12">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>M6592</t>
+        </is>
+      </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>MEN'SANKLEBOOTS</t>
+          <t>GOTEBORG ROSA ANTICO</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>SOLE: 60% TPU 40% CALF LEATHER UPPER: 100% CALF LEATHER LINING: 90% LAMB LEATHER 10% GOAT LEATHER</t>
+          <t>SOLE: 60% TPU 40% CALF LEATHER UPPER: 100% CALF  LEATHER LINING: 100% LAMB LEATHER</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1130,24 +1200,54 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>64039118</t>
+          <t>64039998</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>34/44</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>157,00</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>942,00</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>80</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="G13" t="inlineStr">
         <is>
-          <t>M6592</t>
+          <t>M6621</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>GOTEBORGROSAANTICO64039998</t>
+          <t>GOMMALACCA NERO</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>SOLE: 60% TPU 40% CALF LEATHER UPPER: 100% CALF  LEATHER LINING: 100% LAMB LEATHER</t>
+          <t>SOLE: 100% PU UPPER: 95% CALF LEATHER 5% PL LINING: 85% LAMB LEATHER 15% GOAT LEATHER</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1157,7 +1257,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>64039998</t>
+          <t>64039118</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1167,44 +1267,42 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>EATHER</t>
+          <t>PA</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>157,00</t>
+          <t>191,00</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>942,00</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
+          <t>1.910,00</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="14">
       <c r="G14" t="inlineStr">
         <is>
-          <t>M6621</t>
+          <t>M6628</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>GOMMALACCANERO64039118</t>
+          <t>CAMOSCIO CARAVAGGIO+M.NERO</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>SOLE: 100% PU UPPER: 95% CALF LEATHER 5% PL LINING: 85% LAMB LEATHER 15% GOAT LEATHER</t>
+          <t>SOLE: 100% EVA (PLASTIC MATERIAL) UPPER: 95% CALF LEATHER 5% PL LINING: 100% WOOLLEN SHEEPSKIN</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1222,19 +1320,24 @@
           <t>34/44</t>
         </is>
       </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>PAIA</t>
+        </is>
+      </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>191,00</t>
+          <t>193,00</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>1.910,00</t>
+          <t>1.158,00</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1244,17 +1347,17 @@
     <row r="15">
       <c r="G15" t="inlineStr">
         <is>
-          <t>M6628</t>
+          <t>32108</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>CAMOSCIOCARAVAGGIO+M.NERO64039118</t>
+          <t>CORTINA NERO</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>SOLE: 100% EVA (PLASTIC MATERIAL) UPPER: 95% CALF LEATHER 5% PL LINING: 100% WOOLLEN SHEEPSKIN</t>
+          <t>SOLE: 100% EVA (PLASTIC MATERIAL) UPPER: 100% CALF LEATHER LINING: 100% CALF LEATHER</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1264,17 +1367,22 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>64039118</t>
+          <t>64039996</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>34/44</t>
+          <t>4/14</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>PA</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1284,7 +1392,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>1.158,00</t>
+          <t>1.544,00</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1294,17 +1402,17 @@
     <row r="16">
       <c r="G16" t="inlineStr">
         <is>
-          <t>32108</t>
+          <t>32109</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>CORTINANERO64039996</t>
+          <t>CORTINA  NERO L.NERO</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>SOLE: 100% EVA (PLASTIC MATERIAL) UPPER: 100% CALF LEATHER LINING: 100% CALF LEATHER</t>
+          <t>SOLE: 100% EVA UPPER: 70% CALF LEATHER 30% EA LINING: 100% CALF LEATHER</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1314,7 +1422,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>64039996</t>
+          <t>64039116</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1322,19 +1430,24 @@
           <t>4/14</t>
         </is>
       </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>193,00</t>
+          <t>217,00</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>1.544,00</t>
+          <t>1.302,00</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1344,12 +1457,12 @@
     <row r="17">
       <c r="G17" t="inlineStr">
         <is>
-          <t>32109</t>
+          <t>32143</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>CORTINANEROL.NERO64039116</t>
+          <t>BINDER NOCE</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1370,6 +1483,11 @@
       <c r="L17" t="inlineStr">
         <is>
           <t>4/14</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>PA</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1399,7 +1517,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>BINDERNOCE64039116</t>
+          <t>ANDER NERO</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1420,6 +1538,11 @@
       <c r="L18" t="inlineStr">
         <is>
           <t>4/14</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>PA</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1442,53 +1565,26 @@
       </c>
     </row>
     <row r="19">
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>32143</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ANDERNERO64039116</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>SOLE: 100% EVA UPPER: 70% CALF LEATHER 30% EA LINING: 100% CALF LEATHER</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>ITALY</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>64039116</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>4/14</t>
+      <c r="L19" t="n">
+        <v/>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>________</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>____________</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>217,00</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>1.302,00</t>
-        </is>
-      </c>
-      <c r="Q19" t="n">
-        <v>80</v>
+          <t>___</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v/>
       </c>
     </row>
     <row r="20">
@@ -1497,38 +1593,40 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>PAIA</t>
+          <t>PA</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>____________</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>___</t>
-        </is>
-      </c>
-      <c r="P20" t="n">
+          <t>118</t>
+        </is>
+      </c>
+      <c r="O20" t="n">
         <v/>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>24.354,76</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="L21" t="n">
         <v/>
       </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>PAIA</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>118</t>
-        </is>
-      </c>
-      <c r="O21" t="n">
-        <v/>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>24.354,76</t>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>EURO</t>
         </is>
       </c>
     </row>
@@ -1536,41 +1634,26 @@
       <c r="L22" t="n">
         <v/>
       </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>EURO</t>
-        </is>
+      <c r="O22" t="n">
+        <v/>
       </c>
     </row>
     <row r="23">
-      <c r="L23" t="n">
-        <v/>
-      </c>
-      <c r="O23" t="n">
-        <v/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>________</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="L24" t="inlineStr">
         <is>
-          <t>________</t>
+          <t>TOTAL</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="L25" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="L26" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
